--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H2">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I2">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J2">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N2">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P2">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q2">
-        <v>12.01234193249445</v>
+        <v>58.09196070692701</v>
       </c>
       <c r="R2">
-        <v>108.11107739245</v>
+        <v>522.8276463623431</v>
       </c>
       <c r="S2">
-        <v>0.009626284043677703</v>
+        <v>0.02582631831455081</v>
       </c>
       <c r="T2">
-        <v>0.009626284043677697</v>
+        <v>0.0258263183145508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H3">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I3">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J3">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P3">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q3">
-        <v>35.53665998779111</v>
+        <v>166.8932369411365</v>
       </c>
       <c r="R3">
-        <v>319.82993989012</v>
+        <v>1502.039132470228</v>
       </c>
       <c r="S3">
-        <v>0.02847787591532843</v>
+        <v>0.07419680467548029</v>
       </c>
       <c r="T3">
-        <v>0.02847787591532842</v>
+        <v>0.07419680467548027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H4">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I4">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J4">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N4">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O4">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P4">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q4">
-        <v>3.162901925198889</v>
+        <v>17.37443070160734</v>
       </c>
       <c r="R4">
-        <v>28.46611732679</v>
+        <v>156.369876314466</v>
       </c>
       <c r="S4">
-        <v>0.002534642495640067</v>
+        <v>0.007724262916474591</v>
       </c>
       <c r="T4">
-        <v>0.002534642495640066</v>
+        <v>0.007724262916474589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H5">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I5">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J5">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N5">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P5">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q5">
-        <v>7.463980224445556</v>
+        <v>17.54077687520989</v>
       </c>
       <c r="R5">
-        <v>67.17582202001</v>
+        <v>157.866991876889</v>
       </c>
       <c r="S5">
-        <v>0.00598138099470383</v>
+        <v>0.007798216509666959</v>
       </c>
       <c r="T5">
-        <v>0.005981380994703828</v>
+        <v>0.007798216509666957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H6">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I6">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J6">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N6">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P6">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q6">
-        <v>0.9094745316433335</v>
+        <v>4.207964595155222</v>
       </c>
       <c r="R6">
-        <v>8.185270784790001</v>
+        <v>37.871681356397</v>
       </c>
       <c r="S6">
-        <v>0.0007288220915862211</v>
+        <v>0.001870762008517986</v>
       </c>
       <c r="T6">
-        <v>0.0007288220915862209</v>
+        <v>0.001870762008517985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2380766666666667</v>
+        <v>1.118095666666667</v>
       </c>
       <c r="H7">
-        <v>0.71423</v>
+        <v>3.354287</v>
       </c>
       <c r="I7">
-        <v>0.05067339502381486</v>
+        <v>0.1244546022965661</v>
       </c>
       <c r="J7">
-        <v>0.05067339502381486</v>
+        <v>0.124454602296566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N7">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O7">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P7">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q7">
-        <v>4.148402748551111</v>
+        <v>15.83133270949556</v>
       </c>
       <c r="R7">
-        <v>37.33562473696</v>
+        <v>142.48199438546</v>
       </c>
       <c r="S7">
-        <v>0.003324389482878612</v>
+        <v>0.007038237871875418</v>
       </c>
       <c r="T7">
-        <v>0.00332438948287861</v>
+        <v>0.007038237871875417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I8">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J8">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N8">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P8">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q8">
-        <v>14.01027276036056</v>
+        <v>14.426892923583</v>
       </c>
       <c r="R8">
-        <v>126.092454843245</v>
+        <v>129.842036312247</v>
       </c>
       <c r="S8">
-        <v>0.011227358152019</v>
+        <v>0.006413857001902955</v>
       </c>
       <c r="T8">
-        <v>0.011227358152019</v>
+        <v>0.006413857001902954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I9">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J9">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P9">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q9">
         <v>41.44723004215689</v>
@@ -1013,10 +1013,10 @@
         <v>373.0250703794121</v>
       </c>
       <c r="S9">
-        <v>0.03321440660377559</v>
+        <v>0.01842646285818197</v>
       </c>
       <c r="T9">
-        <v>0.03321440660377558</v>
+        <v>0.01842646285818196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I10">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J10">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N10">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O10">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P10">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q10">
-        <v>3.688965809942112</v>
+        <v>4.314866434012668</v>
       </c>
       <c r="R10">
-        <v>33.20069228947901</v>
+        <v>38.83379790611401</v>
       </c>
       <c r="S10">
-        <v>0.002956212278461526</v>
+        <v>0.001918288049731705</v>
       </c>
       <c r="T10">
-        <v>0.002956212278461525</v>
+        <v>0.001918288049731705</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I11">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J11">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N11">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P11">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q11">
-        <v>8.705413100133445</v>
+        <v>4.356177803186778</v>
       </c>
       <c r="R11">
-        <v>78.348717901201</v>
+        <v>39.20560022868101</v>
       </c>
       <c r="S11">
-        <v>0.006976223261906065</v>
+        <v>0.001936654112045957</v>
       </c>
       <c r="T11">
-        <v>0.006976223261906063</v>
+        <v>0.001936654112045957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I12">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J12">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N12">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P12">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q12">
-        <v>1.060741221697667</v>
+        <v>1.045030222801444</v>
       </c>
       <c r="R12">
-        <v>9.546670995279001</v>
+        <v>9.405272005213</v>
       </c>
       <c r="S12">
-        <v>0.0008500420945625759</v>
+        <v>0.0004645958382874447</v>
       </c>
       <c r="T12">
-        <v>0.0008500420945625758</v>
+        <v>0.0004645958382874446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.8330230000000001</v>
       </c>
       <c r="I13">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="J13">
-        <v>0.05910155488137341</v>
+        <v>0.03090777448944957</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N13">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O13">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P13">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q13">
-        <v>4.838378257432889</v>
+        <v>3.931644569371112</v>
       </c>
       <c r="R13">
-        <v>43.545404316896</v>
+        <v>35.38480112434001</v>
       </c>
       <c r="S13">
-        <v>0.003877312490648656</v>
+        <v>0.001747916629299543</v>
       </c>
       <c r="T13">
-        <v>0.003877312490648655</v>
+        <v>0.001747916629299543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H14">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I14">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J14">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N14">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P14">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q14">
-        <v>36.18709808101056</v>
+        <v>137.075200137897</v>
       </c>
       <c r="R14">
-        <v>325.683882729095</v>
+        <v>1233.676801241073</v>
       </c>
       <c r="S14">
-        <v>0.02899911497706553</v>
+        <v>0.06094040739392623</v>
       </c>
       <c r="T14">
-        <v>0.02899911497706552</v>
+        <v>0.06094040739392622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H15">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I15">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J15">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P15">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q15">
-        <v>107.0539456565969</v>
+        <v>393.8053317012565</v>
       </c>
       <c r="R15">
-        <v>963.4855109093721</v>
+        <v>3544.247985311308</v>
       </c>
       <c r="S15">
-        <v>0.0857894068182624</v>
+        <v>0.1750765807646626</v>
       </c>
       <c r="T15">
-        <v>0.08578940681826239</v>
+        <v>0.1750765807646626</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H16">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I16">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J16">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N16">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O16">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P16">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q16">
-        <v>9.528220461172113</v>
+        <v>40.99712828974734</v>
       </c>
       <c r="R16">
-        <v>85.75398415054902</v>
+        <v>368.9741546077261</v>
       </c>
       <c r="S16">
-        <v>0.007635593217831247</v>
+        <v>0.01822635821392127</v>
       </c>
       <c r="T16">
-        <v>0.007635593217831247</v>
+        <v>0.01822635821392126</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H17">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I17">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J17">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N17">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P17">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q17">
-        <v>22.48518948050345</v>
+        <v>41.38964275751989</v>
       </c>
       <c r="R17">
-        <v>202.366705324531</v>
+        <v>372.506784817679</v>
       </c>
       <c r="S17">
-        <v>0.01801886942043556</v>
+        <v>0.01840086090696863</v>
       </c>
       <c r="T17">
-        <v>0.01801886942043556</v>
+        <v>0.01840086090696863</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H18">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I18">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J18">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N18">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P18">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q18">
-        <v>2.739785818927667</v>
+        <v>9.929215368785222</v>
       </c>
       <c r="R18">
-        <v>24.658072370349</v>
+        <v>89.36293831906698</v>
       </c>
       <c r="S18">
-        <v>0.002195571576304697</v>
+        <v>0.004414295431026814</v>
       </c>
       <c r="T18">
-        <v>0.002195571576304697</v>
+        <v>0.004414295431026813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7172043333333334</v>
+        <v>2.638285666666667</v>
       </c>
       <c r="H19">
-        <v>2.151613</v>
+        <v>7.914857</v>
       </c>
       <c r="I19">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="J19">
-        <v>0.1526532566363432</v>
+        <v>0.293666099582174</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N19">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O19">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P19">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q19">
-        <v>12.49703496495289</v>
+        <v>37.35599682289556</v>
       </c>
       <c r="R19">
-        <v>112.473314684576</v>
+        <v>336.20397140606</v>
       </c>
       <c r="S19">
-        <v>0.01001470062644372</v>
+        <v>0.01660759687166848</v>
       </c>
       <c r="T19">
-        <v>0.01001470062644372</v>
+        <v>0.01660759687166848</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H20">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I20">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J20">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N20">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P20">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q20">
-        <v>37.47701670225945</v>
+        <v>84.59386424229301</v>
       </c>
       <c r="R20">
-        <v>337.2931503203351</v>
+        <v>761.344778180637</v>
       </c>
       <c r="S20">
-        <v>0.03003281207885894</v>
+        <v>0.0376084408030463</v>
       </c>
       <c r="T20">
-        <v>0.03003281207885893</v>
+        <v>0.0376084408030463</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H21">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I21">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J21">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>447.796844</v>
       </c>
       <c r="O21">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P21">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q21">
-        <v>110.8699708507551</v>
+        <v>243.0309402015391</v>
       </c>
       <c r="R21">
-        <v>997.8297376567962</v>
+        <v>2187.278461813852</v>
       </c>
       <c r="S21">
-        <v>0.08884744018454782</v>
+        <v>0.1080458353539628</v>
       </c>
       <c r="T21">
-        <v>0.08884744018454781</v>
+        <v>0.1080458353539628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H22">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I22">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J22">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N22">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O22">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P22">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q22">
-        <v>9.86786164966189</v>
+        <v>25.30075098469934</v>
       </c>
       <c r="R22">
-        <v>88.81075484695702</v>
+        <v>227.706758862294</v>
       </c>
       <c r="S22">
-        <v>0.007907770164816967</v>
+        <v>0.01124811833817332</v>
       </c>
       <c r="T22">
-        <v>0.007907770164816967</v>
+        <v>0.01124811833817332</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H23">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I23">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J23">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N23">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P23">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q23">
-        <v>23.28669239594256</v>
+        <v>25.54298528796122</v>
       </c>
       <c r="R23">
-        <v>209.580231563483</v>
+        <v>229.886867591651</v>
       </c>
       <c r="S23">
-        <v>0.01866116671510228</v>
+        <v>0.0113558100074958</v>
       </c>
       <c r="T23">
-        <v>0.01866116671510227</v>
+        <v>0.0113558100074958</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H24">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I24">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J24">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N24">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P24">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q24">
-        <v>2.837447718706334</v>
+        <v>6.127663473002555</v>
       </c>
       <c r="R24">
-        <v>25.53702946835701</v>
+        <v>55.14897125702299</v>
       </c>
       <c r="S24">
-        <v>0.002273834515604778</v>
+        <v>0.002724214942177691</v>
       </c>
       <c r="T24">
-        <v>0.002273834515604778</v>
+        <v>0.00272421494217769</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7427696666666668</v>
+        <v>1.628177666666667</v>
       </c>
       <c r="H25">
-        <v>2.228309</v>
+        <v>4.884533</v>
       </c>
       <c r="I25">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="J25">
-        <v>0.1580947064560742</v>
+        <v>0.1812315439673029</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N25">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O25">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P25">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q25">
-        <v>12.94250196746311</v>
+        <v>23.05368236334889</v>
       </c>
       <c r="R25">
-        <v>116.482517707168</v>
+        <v>207.48314127014</v>
       </c>
       <c r="S25">
-        <v>0.01037168279714344</v>
+        <v>0.01024912452244702</v>
       </c>
       <c r="T25">
-        <v>0.01037168279714343</v>
+        <v>0.01024912452244702</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H26">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I26">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J26">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N26">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P26">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q26">
-        <v>52.99529474760277</v>
+        <v>89.409265341459</v>
       </c>
       <c r="R26">
-        <v>476.957652728425</v>
+        <v>804.683388073131</v>
       </c>
       <c r="S26">
-        <v>0.04246863459979028</v>
+        <v>0.03974925478291374</v>
       </c>
       <c r="T26">
-        <v>0.04246863459979026</v>
+        <v>0.03974925478291373</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H27">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I27">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J27">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>447.796844</v>
       </c>
       <c r="O27">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P27">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q27">
-        <v>156.7784018288644</v>
+        <v>256.8651759000751</v>
       </c>
       <c r="R27">
-        <v>1411.00561645978</v>
+        <v>2311.786583100676</v>
       </c>
       <c r="S27">
-        <v>0.1256369021461158</v>
+        <v>0.1141962109040569</v>
       </c>
       <c r="T27">
-        <v>0.1256369021461158</v>
+        <v>0.1141962109040569</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H28">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I28">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J28">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N28">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O28">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P28">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q28">
-        <v>13.95389181607055</v>
+        <v>26.74096494339134</v>
       </c>
       <c r="R28">
-        <v>125.585026344635</v>
+        <v>240.668684490522</v>
       </c>
       <c r="S28">
-        <v>0.01118217637252618</v>
+        <v>0.01188840356328199</v>
       </c>
       <c r="T28">
-        <v>0.01118217637252618</v>
+        <v>0.01188840356328199</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H29">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I29">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J29">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N29">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P29">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q29">
-        <v>32.92911858550721</v>
+        <v>26.99698813477922</v>
       </c>
       <c r="R29">
-        <v>296.3620672695649</v>
+        <v>242.972893213013</v>
       </c>
       <c r="S29">
-        <v>0.02638828053625134</v>
+        <v>0.01200222544769125</v>
       </c>
       <c r="T29">
-        <v>0.02638828053625132</v>
+        <v>0.01200222544769125</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H30">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I30">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J30">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N30">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P30">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q30">
-        <v>4.012362546848332</v>
+        <v>6.476473137716554</v>
       </c>
       <c r="R30">
-        <v>36.111262921635</v>
+        <v>58.28825823944899</v>
       </c>
       <c r="S30">
-        <v>0.003215371472043633</v>
+        <v>0.002879287508544371</v>
       </c>
       <c r="T30">
-        <v>0.003215371472043632</v>
+        <v>0.002879287508544371</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.050331666666666</v>
+        <v>1.720859666666667</v>
       </c>
       <c r="H31">
-        <v>3.150995</v>
+        <v>5.162579</v>
       </c>
       <c r="I31">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666055</v>
       </c>
       <c r="J31">
-        <v>0.223557697594704</v>
+        <v>0.1915479254666054</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N31">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O31">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P31">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q31">
-        <v>18.30166237580444</v>
+        <v>24.36598471986889</v>
       </c>
       <c r="R31">
-        <v>164.7149613822399</v>
+        <v>219.29386247882</v>
       </c>
       <c r="S31">
-        <v>0.01466633246797683</v>
+        <v>0.01083254326011719</v>
       </c>
       <c r="T31">
-        <v>0.01466633246797682</v>
+        <v>0.01083254326011719</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H32">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I32">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J32">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>50.45577166666667</v>
+        <v>51.956163</v>
       </c>
       <c r="N32">
-        <v>151.367315</v>
+        <v>155.868489</v>
       </c>
       <c r="O32">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="P32">
-        <v>0.18996722124408</v>
+        <v>0.2075159764120945</v>
       </c>
       <c r="Q32">
-        <v>84.37219183677169</v>
+        <v>83.17511461797301</v>
       </c>
       <c r="R32">
-        <v>759.3497265309452</v>
+        <v>748.5760315617571</v>
       </c>
       <c r="S32">
-        <v>0.0676130173926686</v>
+        <v>0.03697769811575449</v>
       </c>
       <c r="T32">
-        <v>0.06761301739266858</v>
+        <v>0.03697769811575449</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H33">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I33">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J33">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>447.796844</v>
       </c>
       <c r="O33">
-        <v>0.5619887102876124</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="P33">
-        <v>0.5619887102876123</v>
+        <v>0.5961756600906958</v>
       </c>
       <c r="Q33">
-        <v>249.6021101112147</v>
+        <v>238.9549938170413</v>
       </c>
       <c r="R33">
-        <v>2246.418991000933</v>
+        <v>2150.594944353372</v>
       </c>
       <c r="S33">
-        <v>0.2000226786195825</v>
+        <v>0.1062337655343512</v>
       </c>
       <c r="T33">
-        <v>0.2000226786195824</v>
+        <v>0.1062337655343512</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H34">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I34">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J34">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.28522433333333</v>
+        <v>15.539306</v>
       </c>
       <c r="N34">
-        <v>39.855673</v>
+        <v>46.617918</v>
       </c>
       <c r="O34">
-        <v>0.05001919635439597</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="P34">
-        <v>0.05001919635439596</v>
+        <v>0.06206490377967901</v>
       </c>
       <c r="Q34">
-        <v>22.21556541542434</v>
+        <v>24.876424335526</v>
       </c>
       <c r="R34">
-        <v>199.940088738819</v>
+        <v>223.887819019734</v>
       </c>
       <c r="S34">
-        <v>0.01780280182511999</v>
+        <v>0.01105947269809613</v>
       </c>
       <c r="T34">
-        <v>0.01780280182511998</v>
+        <v>0.01105947269809613</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H35">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I35">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J35">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.35116233333333</v>
+        <v>15.68808233333333</v>
       </c>
       <c r="N35">
-        <v>94.05348699999999</v>
+        <v>47.064247</v>
       </c>
       <c r="O35">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="P35">
-        <v>0.1180378972415954</v>
+        <v>0.06265912522129466</v>
       </c>
       <c r="Q35">
-        <v>52.42544500496234</v>
+        <v>25.11459605304567</v>
       </c>
       <c r="R35">
-        <v>471.829005044661</v>
+        <v>226.031364477411</v>
       </c>
       <c r="S35">
-        <v>0.04201197631319634</v>
+        <v>0.01116535823742606</v>
       </c>
       <c r="T35">
-        <v>0.04201197631319632</v>
+        <v>0.01116535823742606</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H36">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I36">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J36">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.820091</v>
+        <v>3.763510333333333</v>
       </c>
       <c r="N36">
-        <v>11.460273</v>
+        <v>11.290531</v>
       </c>
       <c r="O36">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="P36">
-        <v>0.01438273656706242</v>
+        <v>0.01503168202699406</v>
       </c>
       <c r="Q36">
-        <v>6.387959990291002</v>
+        <v>6.024894550833666</v>
       </c>
       <c r="R36">
-        <v>57.49163991261901</v>
+        <v>54.22405095750299</v>
       </c>
       <c r="S36">
-        <v>0.005119094816960519</v>
+        <v>0.002678526298439754</v>
       </c>
       <c r="T36">
-        <v>0.005119094816960519</v>
+        <v>0.002678526298439754</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.672201</v>
+        <v>1.600871</v>
       </c>
       <c r="H37">
-        <v>5.016603000000001</v>
+        <v>4.802613</v>
       </c>
       <c r="I37">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="J37">
-        <v>0.3559193894076904</v>
+        <v>0.1781920541979019</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.42465066666666</v>
+        <v>14.15919333333333</v>
       </c>
       <c r="N37">
-        <v>52.27395199999999</v>
+        <v>42.47758</v>
       </c>
       <c r="O37">
-        <v>0.06560423830525379</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="P37">
-        <v>0.06560423830525378</v>
+        <v>0.05655265246924192</v>
       </c>
       <c r="Q37">
-        <v>29.13751826945067</v>
+        <v>22.66704199072667</v>
       </c>
       <c r="R37">
-        <v>262.237664425056</v>
+        <v>204.00337791654</v>
       </c>
       <c r="S37">
-        <v>0.02334982044016254</v>
+        <v>0.01007723331383427</v>
       </c>
       <c r="T37">
-        <v>0.02334982044016254</v>
+        <v>0.01007723331383427</v>
       </c>
     </row>
   </sheetData>
